--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_10_2.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_10_2.xlsx
@@ -518,56 +518,56 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_10_2_0</t>
+          <t>model_10_2_2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999605815860751</v>
+        <v>0.9999416949202178</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9992615179585711</v>
+        <v>0.9990735993345926</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999495723428523</v>
+        <v>0.9999711916426839</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999930714358506</v>
+        <v>0.9999651335640422</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999859362357787</v>
+        <v>0.9999685678522496</v>
       </c>
       <c r="G2" t="n">
-        <v>3.679535913043655e-05</v>
+        <v>5.44252326794954e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0006893405700587237</v>
+        <v>0.000864754356868381</v>
       </c>
       <c r="I2" t="n">
-        <v>1.66410918388747e-05</v>
+        <v>6.077800386365924e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>1.388693467703771e-06</v>
+        <v>2.241063446439209e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>9.014892653289237e-06</v>
+        <v>1.424421742537901e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0005024419171904205</v>
+        <v>0.0005387796688230974</v>
       </c>
       <c r="M2" t="n">
-        <v>0.006065917830834551</v>
+        <v>0.007377345910250881</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000189208386839</v>
+        <v>1.000279864382955</v>
       </c>
       <c r="O2" t="n">
-        <v>0.006324156511074142</v>
+        <v>0.007691414798861596</v>
       </c>
       <c r="P2" t="n">
-        <v>78.42027766265592</v>
+        <v>77.63736535124184</v>
       </c>
       <c r="Q2" t="n">
-        <v>113.7676765838337</v>
+        <v>112.9847642724197</v>
       </c>
     </row>
     <row r="3">
@@ -577,217 +577,217 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999653647525903</v>
+        <v>0.9999302059843683</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9992404429900793</v>
+        <v>0.9990728287183233</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999155463683799</v>
+        <v>0.9999745477980536</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999845295292225</v>
+        <v>0.9999736584138931</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999758421830812</v>
+        <v>0.9999753946675877</v>
       </c>
       <c r="G3" t="n">
-        <v>3.233048314524806e-05</v>
+        <v>6.51496499889088e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0007090131280615746</v>
+        <v>0.0008654736933296907</v>
       </c>
       <c r="I3" t="n">
-        <v>2.786963978514898e-05</v>
+        <v>5.369740493234919e-06</v>
       </c>
       <c r="J3" t="n">
-        <v>3.100749483989558e-06</v>
+        <v>1.693123031463975e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>1.548519463456927e-05</v>
+        <v>1.115048540393733e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0005150578636806141</v>
+        <v>0.0005494456677724559</v>
       </c>
       <c r="M3" t="n">
-        <v>0.00568599007607717</v>
+        <v>0.008071533310896313</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000166249187566</v>
+        <v>1.000335011275032</v>
       </c>
       <c r="O3" t="n">
-        <v>0.005928054445237865</v>
+        <v>0.008415155194318527</v>
       </c>
       <c r="P3" t="n">
-        <v>78.67900004432283</v>
+        <v>77.27764725359211</v>
       </c>
       <c r="Q3" t="n">
-        <v>114.0263989655006</v>
+        <v>112.6250461747699</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_10_2_2</t>
+          <t>model_10_2_3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999684784643614</v>
+        <v>0.9999505887200546</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9992198030476012</v>
+        <v>0.9990720155080384</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9998773404101119</v>
+        <v>0.9999668280980772</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999747353175389</v>
+        <v>0.9999559557061344</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999644763769372</v>
+        <v>0.9999610434479196</v>
       </c>
       <c r="G4" t="n">
-        <v>2.942396988311055e-05</v>
+        <v>4.612326092448494e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0007282796083761527</v>
+        <v>0.0008662327894348061</v>
       </c>
       <c r="I4" t="n">
-        <v>4.047757948115827e-05</v>
+        <v>6.998392727170071e-06</v>
       </c>
       <c r="J4" t="n">
-        <v>5.063805247481837e-06</v>
+        <v>2.830976390176493e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>2.277069236432005e-05</v>
+        <v>1.76540783144675e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0005198828775570983</v>
+        <v>0.0005248492976870303</v>
       </c>
       <c r="M4" t="n">
-        <v>0.005424386590492104</v>
+        <v>0.006791410819887495</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000151303371065</v>
+        <v>1.000237174143738</v>
       </c>
       <c r="O4" t="n">
-        <v>0.005655313957677573</v>
+        <v>0.007080535238648594</v>
       </c>
       <c r="P4" t="n">
-        <v>78.86740182730256</v>
+        <v>77.96838631969716</v>
       </c>
       <c r="Q4" t="n">
-        <v>114.2148007484804</v>
+        <v>113.315785240875</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_10_2_3</t>
+          <t>model_10_2_4</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999701743039136</v>
+        <v>0.9999575102391196</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9991999917350272</v>
+        <v>0.9990689559441166</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9998337906689569</v>
+        <v>0.9999622192964348</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999649275336794</v>
+        <v>0.9999467505762607</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999517329100766</v>
+        <v>0.9999534426137321</v>
       </c>
       <c r="G5" t="n">
-        <v>2.784097809999273e-05</v>
+        <v>3.966232669690466e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.000746772599047916</v>
+        <v>0.0008690887580563829</v>
       </c>
       <c r="I5" t="n">
-        <v>5.48489638188377e-05</v>
+        <v>7.970727806724762e-06</v>
       </c>
       <c r="J5" t="n">
-        <v>7.029581284835973e-06</v>
+        <v>3.422642257738021e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>3.093927255183684e-05</v>
+        <v>2.109857519205249e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0005202417755019162</v>
+        <v>0.0005093454589771733</v>
       </c>
       <c r="M5" t="n">
-        <v>0.005276455069456456</v>
+        <v>0.006297803323136144</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000143163341215</v>
+        <v>1.000203950852226</v>
       </c>
       <c r="O5" t="n">
-        <v>0.005501084685530973</v>
+        <v>0.006565913848852157</v>
       </c>
       <c r="P5" t="n">
-        <v>78.97800318042633</v>
+        <v>78.27021754101816</v>
       </c>
       <c r="Q5" t="n">
-        <v>114.3254021016041</v>
+        <v>113.617616462196</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_10_2_4</t>
+          <t>model_10_2_0</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999707443401094</v>
+        <v>0.9999151979639611</v>
       </c>
       <c r="C6" t="n">
-        <v>0.999180897493087</v>
+        <v>0.9990688886084247</v>
       </c>
       <c r="D6" t="n">
-        <v>0.999785153744194</v>
+        <v>0.99997615688925</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999555715467309</v>
+        <v>0.9999803384086637</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999377505899955</v>
+        <v>0.9999805064917846</v>
       </c>
       <c r="G6" t="n">
-        <v>2.730887433283979e-05</v>
+        <v>7.915897826314497e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0007645962357586511</v>
+        <v>0.0008691516129691317</v>
       </c>
       <c r="I6" t="n">
-        <v>7.089911521432407e-05</v>
+        <v>5.030264868572992e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>8.904803578963296e-06</v>
+        <v>1.26376190832125e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>3.990195939664368e-05</v>
+        <v>8.833941975892746e-06</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0005173478930619104</v>
+        <v>0.0005592233119124157</v>
       </c>
       <c r="M6" t="n">
-        <v>0.005225789350216844</v>
+        <v>0.008897133148556616</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000140427167475</v>
+        <v>1.000407049772987</v>
       </c>
       <c r="O6" t="n">
-        <v>0.005448262021730834</v>
+        <v>0.009275902526295298</v>
       </c>
       <c r="P6" t="n">
-        <v>79.0165976829185</v>
+        <v>76.88810468909976</v>
       </c>
       <c r="Q6" t="n">
-        <v>114.3639966040963</v>
+        <v>112.2355036102776</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999703743489403</v>
+        <v>0.9999629209375506</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9991623745276104</v>
+        <v>0.9990647423023711</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9997316882607362</v>
+        <v>0.9999574981620275</v>
       </c>
       <c r="E7" t="n">
-        <v>0.99994683404003</v>
+        <v>0.9999378360639948</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999226220486401</v>
+        <v>0.999946021729561</v>
       </c>
       <c r="G7" t="n">
-        <v>2.765424484844178e-05</v>
+        <v>3.461167721385238e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0007818866109669022</v>
+        <v>0.0008730220076683399</v>
       </c>
       <c r="I7" t="n">
-        <v>8.854268762586667e-05</v>
+        <v>8.966762124476507e-06</v>
       </c>
       <c r="J7" t="n">
-        <v>1.06560637560822e-05</v>
+        <v>3.995628484553199e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>4.959937569097443e-05</v>
+        <v>2.446152348500425e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0005132538318026775</v>
+        <v>0.0004927675598243253</v>
       </c>
       <c r="M7" t="n">
-        <v>0.005258730345667267</v>
+        <v>0.005883168977162936</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000142203125086</v>
+        <v>1.000177979499757</v>
       </c>
       <c r="O7" t="n">
-        <v>0.005482605383554842</v>
+        <v>0.006133627660359447</v>
       </c>
       <c r="P7" t="n">
-        <v>78.99146264207945</v>
+        <v>78.54263888221656</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.3388615632573</v>
+        <v>113.8900378033944</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999693472901325</v>
+        <v>0.9999671279909033</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9991446410477937</v>
+        <v>0.9990598036523747</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9996761918196494</v>
+        <v>0.9999526804106491</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999384449011778</v>
+        <v>0.9999291990341901</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999070251844664</v>
+        <v>0.9999387751385372</v>
       </c>
       <c r="G8" t="n">
-        <v>2.861295916283165e-05</v>
+        <v>3.068457757732927e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0007984400359659415</v>
+        <v>0.0008776320206582986</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0001068564746445933</v>
+        <v>9.983180064158189e-06</v>
       </c>
       <c r="J8" t="n">
-        <v>1.233750049717579e-05</v>
+        <v>4.550779340935914e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>5.959698757088456e-05</v>
+        <v>2.774548673675867e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.000515427183269017</v>
+        <v>0.0004762887096795223</v>
       </c>
       <c r="M8" t="n">
-        <v>0.005349108258656918</v>
+        <v>0.005539366171082145</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000147133007364</v>
+        <v>1.000157785643664</v>
       </c>
       <c r="O8" t="n">
-        <v>0.005576830871408534</v>
+        <v>0.005775188457053877</v>
       </c>
       <c r="P8" t="n">
-        <v>78.92330165036742</v>
+        <v>78.78350077728071</v>
       </c>
       <c r="Q8" t="n">
-        <v>114.2707005715452</v>
+        <v>114.1308996984585</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999678279841043</v>
+        <v>0.9999703875193722</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9991277967159756</v>
+        <v>0.9990543562834242</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9996198498294202</v>
+        <v>0.999947706002638</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999302750380356</v>
+        <v>0.9999210356313779</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9998912449500583</v>
+        <v>0.9999318279653869</v>
       </c>
       <c r="G9" t="n">
-        <v>3.003116465034702e-05</v>
+        <v>2.764195082839235e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0008141634803373795</v>
+        <v>0.0008827169004617427</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0001254492922930797</v>
+        <v>1.1032648404206e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>1.397498776478616e-05</v>
+        <v>5.075487506206918e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>6.971214002893295e-05</v>
+        <v>3.089376173313759e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0005177458499733649</v>
+        <v>0.0004601588831544082</v>
       </c>
       <c r="M9" t="n">
-        <v>0.005480069766923321</v>
+        <v>0.005257561300488312</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000154425676299</v>
+        <v>1.000142139907014</v>
       </c>
       <c r="O9" t="n">
-        <v>0.005713367682209532</v>
+        <v>0.005481386569702362</v>
       </c>
       <c r="P9" t="n">
-        <v>78.82654978765146</v>
+        <v>78.99235196331406</v>
       </c>
       <c r="Q9" t="n">
-        <v>114.1739487088293</v>
+        <v>114.3397508844919</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999660057950956</v>
+        <v>0.9999728968000106</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9991119801369356</v>
+        <v>0.9990486836391405</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9995645623077996</v>
+        <v>0.999942906702216</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999223631617202</v>
+        <v>0.9999133121386047</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9998757764795984</v>
+        <v>0.9999252335248598</v>
       </c>
       <c r="G10" t="n">
-        <v>3.173209810509042e-05</v>
+        <v>2.529964749711742e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008289275626036595</v>
+        <v>0.0008880120649003047</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0001436941360330438</v>
+        <v>1.204517368079033e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>1.556076668223759e-05</v>
+        <v>5.571920160055437e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>7.962745135764072e-05</v>
+        <v>3.388218764067235e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0005197979309796766</v>
+        <v>0.0004446288317647178</v>
       </c>
       <c r="M10" t="n">
-        <v>0.00563312507451152</v>
+        <v>0.005029875495190454</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000163172183541</v>
+        <v>1.000130095359949</v>
       </c>
       <c r="O10" t="n">
-        <v>0.005872938871109927</v>
+        <v>0.005244007708298382</v>
       </c>
       <c r="P10" t="n">
-        <v>78.71636366170486</v>
+        <v>79.16944019049625</v>
       </c>
       <c r="Q10" t="n">
-        <v>114.0637625828827</v>
+        <v>114.5168391116741</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999640144089622</v>
+        <v>0.9999748261790694</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9990973030461605</v>
+        <v>0.9990429216091891</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9995114390050852</v>
+        <v>0.9999380956075505</v>
       </c>
       <c r="E11" t="n">
-        <v>0.999914644592682</v>
+        <v>0.9999062821626939</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9998608953209158</v>
+        <v>0.9999191281622337</v>
       </c>
       <c r="G11" t="n">
-        <v>3.359096964891167e-05</v>
+        <v>2.349865683570448e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008426279825923549</v>
+        <v>0.0008933906669360957</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0001612247890368812</v>
+        <v>1.30601872303438e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>1.710780098434381e-05</v>
+        <v>6.023776554611973e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>8.916629501061252e-05</v>
+        <v>3.664897638823177e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0005215656397291385</v>
+        <v>0.0004298479822907939</v>
       </c>
       <c r="M11" t="n">
-        <v>0.005795771704347202</v>
+        <v>0.004847541318617561</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000172730836981</v>
+        <v>1.000120834340467</v>
       </c>
       <c r="O11" t="n">
-        <v>0.006042509704702652</v>
+        <v>0.005053911188345001</v>
       </c>
       <c r="P11" t="n">
-        <v>78.60250657513348</v>
+        <v>79.31713458875018</v>
       </c>
       <c r="Q11" t="n">
-        <v>113.9499054963113</v>
+        <v>114.664533509928</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999619539687327</v>
+        <v>0.9999762680278672</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9990837516576436</v>
+        <v>0.9990371479602114</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9994612837829349</v>
+        <v>0.999933420517999</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999072116975133</v>
+        <v>0.999899602023863</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9998468228361171</v>
+        <v>0.9999133025529219</v>
       </c>
       <c r="G12" t="n">
-        <v>3.551430016031628e-05</v>
+        <v>2.215275427277458e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0008552776089357202</v>
+        <v>0.000898780114822867</v>
       </c>
       <c r="I12" t="n">
-        <v>0.000177775977515821</v>
+        <v>1.404650730303975e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>1.859757761687333e-05</v>
+        <v>6.45314693732818e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>9.818677756634714e-05</v>
+        <v>3.928898833816078e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0005231376874058012</v>
+        <v>0.0004160129809547546</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0059593875658759</v>
+        <v>0.004706671251826984</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000182620950083</v>
+        <v>1.000113913466237</v>
       </c>
       <c r="O12" t="n">
-        <v>0.006213091032188151</v>
+        <v>0.00490704399116991</v>
       </c>
       <c r="P12" t="n">
-        <v>78.49115024235262</v>
+        <v>79.43509744560569</v>
       </c>
       <c r="Q12" t="n">
-        <v>113.8385491635304</v>
+        <v>114.7824963667835</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999598737708121</v>
+        <v>0.9999773450642813</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9990712859456558</v>
+        <v>0.9990314886156847</v>
       </c>
       <c r="D13" t="n">
-        <v>0.999414110975549</v>
+        <v>0.9999287886992901</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9998999893240461</v>
+        <v>0.9998935335744348</v>
       </c>
       <c r="F13" t="n">
-        <v>0.999833550965557</v>
+        <v>0.9999079208093922</v>
       </c>
       <c r="G13" t="n">
-        <v>3.745607360907356e-05</v>
+        <v>2.114738805670386e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0008669138038948237</v>
+        <v>0.0009040628645219835</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0001933429711936249</v>
+        <v>1.502369837401803e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>2.004515934360882e-05</v>
+        <v>6.843200575347557e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0001066940652686169</v>
+        <v>4.17278520637468e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0005245333815976038</v>
+        <v>0.0004030419553012402</v>
       </c>
       <c r="M13" t="n">
-        <v>0.006120136731240043</v>
+        <v>0.004598628932269254</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000192605900102</v>
+        <v>1.00010874369145</v>
       </c>
       <c r="O13" t="n">
-        <v>0.006380683622318493</v>
+        <v>0.004794402086390173</v>
       </c>
       <c r="P13" t="n">
-        <v>78.38468336400635</v>
+        <v>79.5279883124704</v>
       </c>
       <c r="Q13" t="n">
-        <v>113.7320822851842</v>
+        <v>114.8753872336482</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999578414774376</v>
+        <v>0.9999781252507864</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9990598954690862</v>
+        <v>0.9990260394357972</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9993703921479754</v>
+        <v>0.9999246951625828</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9998931057079249</v>
+        <v>0.9998877782668922</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9998212211429608</v>
+        <v>0.9999028864353142</v>
       </c>
       <c r="G14" t="n">
-        <v>3.935313026676175e-05</v>
+        <v>2.041911820029425e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008775463137884042</v>
+        <v>0.0009091494347556185</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0002077701539320126</v>
+        <v>1.588732619938994e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>2.142484386922955e-05</v>
+        <v>7.213126809627674e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0001145974989006211</v>
+        <v>4.400929714783334e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0005256879095241955</v>
+        <v>0.0003911196061504373</v>
       </c>
       <c r="M14" t="n">
-        <v>0.006273207334909452</v>
+        <v>0.00451875184097271</v>
       </c>
       <c r="N14" t="n">
-        <v>1.0002023609083</v>
+        <v>1.000104998796225</v>
       </c>
       <c r="O14" t="n">
-        <v>0.006540270758485941</v>
+        <v>0.004711124461948762</v>
       </c>
       <c r="P14" t="n">
-        <v>78.28587007383766</v>
+        <v>79.59807785859907</v>
       </c>
       <c r="Q14" t="n">
-        <v>113.6332689950155</v>
+        <v>114.9454767797769</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999558830129248</v>
+        <v>0.9999786761220045</v>
       </c>
       <c r="C15" t="n">
-        <v>0.999049511263322</v>
+        <v>0.9990208384616471</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9993300512193635</v>
+        <v>0.9999206617720615</v>
       </c>
       <c r="E15" t="n">
-        <v>0.999886590913828</v>
+        <v>0.9998825955679855</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9998098184847741</v>
+        <v>0.9998982721401335</v>
       </c>
       <c r="G15" t="n">
-        <v>4.118127092275286e-05</v>
+        <v>1.990490409872117e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0008872395140553478</v>
+        <v>0.0009140043158282998</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0002210826323588814</v>
+        <v>1.673826477250072e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>2.27306053243678e-05</v>
+        <v>7.546248241584752e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0001219066188416246</v>
+        <v>4.610037359417412e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0005266423448149667</v>
+        <v>0.0003801276513110514</v>
       </c>
       <c r="M15" t="n">
-        <v>0.006417263507348974</v>
+        <v>0.004461491241582928</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000211761537961</v>
+        <v>1.000102354614378</v>
       </c>
       <c r="O15" t="n">
-        <v>0.006690459700423599</v>
+        <v>0.004651426160297176</v>
       </c>
       <c r="P15" t="n">
-        <v>78.19505398843877</v>
+        <v>79.6490888389456</v>
       </c>
       <c r="Q15" t="n">
-        <v>113.5424529096166</v>
+        <v>114.9964877601234</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999540153600387</v>
+        <v>0.999979047010446</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9990400629432161</v>
+        <v>0.9990158964646029</v>
       </c>
       <c r="D16" t="n">
-        <v>0.999292959680612</v>
+        <v>0.9999169868542143</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9998804085489669</v>
+        <v>0.9998777708552525</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9997993042218715</v>
+        <v>0.9998939951619196</v>
       </c>
       <c r="G16" t="n">
-        <v>4.292464291148018e-05</v>
+        <v>1.955869601866146e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0008960591061408672</v>
+        <v>0.0009186174531404954</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0002333228143883653</v>
+        <v>1.751357510579189e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>2.396973792276757e-05</v>
+        <v>7.856359873258982e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0001286462761555665</v>
+        <v>4.803858691919086e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0005274725044351056</v>
+        <v>0.0003699993373766849</v>
       </c>
       <c r="M16" t="n">
-        <v>0.006551690080542591</v>
+        <v>0.004422521454855981</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000220726271814</v>
+        <v>1.000100574349859</v>
       </c>
       <c r="O16" t="n">
-        <v>0.006830609091139437</v>
+        <v>0.004610797349070683</v>
       </c>
       <c r="P16" t="n">
-        <v>78.11212894021844</v>
+        <v>79.68418112258493</v>
       </c>
       <c r="Q16" t="n">
-        <v>113.4595278613963</v>
+        <v>115.0315800437627</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999522483372453</v>
+        <v>0.9999792837936842</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9990314605222422</v>
+        <v>0.9990112574046213</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9992589142052798</v>
+        <v>0.9999135092551031</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9998745894191374</v>
+        <v>0.9998734063381433</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9997896308323818</v>
+        <v>0.9998900904724783</v>
       </c>
       <c r="G17" t="n">
-        <v>4.457408112582518e-05</v>
+        <v>1.933766925945274e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0009040890885172913</v>
+        <v>0.0009229478120021258</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0002445577976048398</v>
+        <v>1.824725641184465e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>2.513606725268898e-05</v>
+        <v>8.136892124009446e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0001348469324287644</v>
+        <v>4.980808882596956e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0005281833591459476</v>
+        <v>0.0003607298095247855</v>
       </c>
       <c r="M17" t="n">
-        <v>0.006676382338199722</v>
+        <v>0.00439746168368216</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000229207981223</v>
+        <v>1.000099437790316</v>
       </c>
       <c r="O17" t="n">
-        <v>0.006960609756353589</v>
+        <v>0.004584670731557115</v>
       </c>
       <c r="P17" t="n">
-        <v>78.03671601708503</v>
+        <v>79.70691117838103</v>
       </c>
       <c r="Q17" t="n">
-        <v>113.3841149382628</v>
+        <v>115.0543100995588</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999505864303287</v>
+        <v>0.9999794093899964</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9990236383148514</v>
+        <v>0.9990069308536133</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9992277041126295</v>
+        <v>0.9999103892894249</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9998691530660535</v>
+        <v>0.9998693650864338</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9997807471403271</v>
+        <v>0.9998864982816229</v>
       </c>
       <c r="G18" t="n">
-        <v>4.612539828303601e-05</v>
+        <v>1.922043061504235e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0009113907757614737</v>
+        <v>0.0009269864574545121</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0002548571065053606</v>
+        <v>1.890548653571637e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>2.622567656465543e-05</v>
+        <v>8.396646275396209e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>0.000140541391535008</v>
+        <v>5.143597464483923e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0005288211778374217</v>
+        <v>0.0003523365019349419</v>
       </c>
       <c r="M18" t="n">
-        <v>0.006791568175542082</v>
+        <v>0.004384111154503538</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000237185134422</v>
+        <v>1.000098834928017</v>
       </c>
       <c r="O18" t="n">
-        <v>0.007080699293259168</v>
+        <v>0.004570751842711954</v>
       </c>
       <c r="P18" t="n">
-        <v>77.96829364155658</v>
+        <v>79.71907350028873</v>
       </c>
       <c r="Q18" t="n">
-        <v>113.3156925627344</v>
+        <v>115.0664724214665</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999490384104143</v>
+        <v>0.9999794584632345</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9990165560849239</v>
+        <v>0.999002890646177</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9991992574274675</v>
+        <v>0.9999073913992979</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9998640926363538</v>
+        <v>0.999865741383503</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9997726335471667</v>
+        <v>0.999883230620944</v>
       </c>
       <c r="G19" t="n">
-        <v>4.757040692300311e-05</v>
+        <v>1.917462290132765e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0009180017265247658</v>
+        <v>0.0009307578137516695</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0002642444928537997</v>
+        <v>1.953796195153217e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>2.72399394792027e-05</v>
+        <v>8.629562200287412e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0001457422161665012</v>
+        <v>5.291679197720314e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0005293623238812401</v>
+        <v>0.0003446475423510694</v>
       </c>
       <c r="M19" t="n">
-        <v>0.006897130339713982</v>
+        <v>0.004378883750606729</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000244615630012</v>
+        <v>1.000098599376474</v>
       </c>
       <c r="O19" t="n">
-        <v>0.007190755457303671</v>
+        <v>0.004565301897409039</v>
       </c>
       <c r="P19" t="n">
-        <v>77.90659938672557</v>
+        <v>79.72384575413435</v>
       </c>
       <c r="Q19" t="n">
-        <v>113.2539983079034</v>
+        <v>115.0712446753122</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999476055780817</v>
+        <v>0.9999794503991046</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9990101429573771</v>
+        <v>0.998999174971936</v>
       </c>
       <c r="D20" t="n">
-        <v>0.999173398671148</v>
+        <v>0.9999047500128943</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9998594283953329</v>
+        <v>0.9998624325327201</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9997652480513903</v>
+        <v>0.9998802692294352</v>
       </c>
       <c r="G20" t="n">
-        <v>4.890789301138801e-05</v>
+        <v>1.918215041257916e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0009239880995860073</v>
+        <v>0.0009342262325563394</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0002727778644814269</v>
+        <v>2.009522452391301e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>2.817479421935314e-05</v>
+        <v>8.842240793194887e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>0.00015047632935039</v>
+        <v>5.425881622793094e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0005298183148353222</v>
+        <v>0.0003377018225346867</v>
       </c>
       <c r="M20" t="n">
-        <v>0.006993417834749187</v>
+        <v>0.004379743190254329</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000251493225208</v>
+        <v>1.000098638084298</v>
       </c>
       <c r="O20" t="n">
-        <v>0.007291142110345116</v>
+        <v>0.004566197925181723</v>
       </c>
       <c r="P20" t="n">
-        <v>77.85114352646603</v>
+        <v>79.72306075469901</v>
       </c>
       <c r="Q20" t="n">
-        <v>113.1985424476438</v>
+        <v>115.0704596758768</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999462760696669</v>
+        <v>0.9999793946629656</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9990043215855494</v>
+        <v>0.9989957238716712</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9991498035773581</v>
+        <v>0.9999022936433917</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9998550923363474</v>
+        <v>0.9998593935584453</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9997584965516111</v>
+        <v>0.9998775422940207</v>
       </c>
       <c r="G21" t="n">
-        <v>5.014893075790566e-05</v>
+        <v>1.923417765185939e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0009294220946583934</v>
+        <v>0.0009374476831676807</v>
       </c>
       <c r="I21" t="n">
-        <v>0.000280564229046309</v>
+        <v>2.061345343048837e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>2.904387136995178e-05</v>
+        <v>9.037572893387093e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0001548040502081304</v>
+        <v>5.549459118217965e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0005302383663305745</v>
+        <v>0.0003314039636463038</v>
       </c>
       <c r="M21" t="n">
-        <v>0.007081590976461833</v>
+        <v>0.004385678699113672</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000257874865599</v>
+        <v>1.000098905617765</v>
       </c>
       <c r="O21" t="n">
-        <v>0.007383068965244035</v>
+        <v>0.004572386120941407</v>
       </c>
       <c r="P21" t="n">
-        <v>77.80102672932574</v>
+        <v>79.7176435507433</v>
       </c>
       <c r="Q21" t="n">
-        <v>113.1484256505036</v>
+        <v>115.0650424719211</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999450506071884</v>
+        <v>0.9999793122596832</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9989990595449181</v>
+        <v>0.9989925588507931</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9991283705995037</v>
+        <v>0.9999001014553169</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9998510825412923</v>
+        <v>0.9998566617438563</v>
       </c>
       <c r="F22" t="n">
-        <v>0.999752352608923</v>
+        <v>0.9998750946823142</v>
       </c>
       <c r="G22" t="n">
-        <v>5.12928461900242e-05</v>
+        <v>1.931109749891567e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0009343339786109145</v>
+        <v>0.0009404020912291333</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0002876370968539689</v>
+        <v>2.107594705278935e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>2.98475553771752e-05</v>
+        <v>9.213162099733446e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0001587423261155721</v>
+        <v>5.660378402506191e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0005306140760396255</v>
+        <v>0.0003256426058309999</v>
       </c>
       <c r="M22" t="n">
-        <v>0.007161902414165122</v>
+        <v>0.004394439383916414</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000263757085496</v>
+        <v>1.000099301153521</v>
       </c>
       <c r="O22" t="n">
-        <v>0.007466799427117947</v>
+        <v>0.004581519766233318</v>
       </c>
       <c r="P22" t="n">
-        <v>77.75591853199705</v>
+        <v>79.70966125471749</v>
       </c>
       <c r="Q22" t="n">
-        <v>113.1033174531749</v>
+        <v>115.0570601758953</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999439262540405</v>
+        <v>0.9999792062873205</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9989942990010444</v>
+        <v>0.9989896477301691</v>
       </c>
       <c r="D23" t="n">
-        <v>0.999108950613677</v>
+        <v>0.9998980866761933</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9998473952393457</v>
+        <v>0.9998541598021349</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9997467772479263</v>
+        <v>0.9998728513862802</v>
       </c>
       <c r="G23" t="n">
-        <v>5.234238050018175e-05</v>
+        <v>1.941001804777372e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0009387777373532362</v>
+        <v>0.000943119494548171</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0002940456786903804</v>
+        <v>2.150101208519136e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>3.058660202755374e-05</v>
+        <v>9.373976074058793e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0001623161403589671</v>
+        <v>5.762038641288964e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0005309458333008652</v>
+        <v>0.0003204591689341789</v>
       </c>
       <c r="M23" t="n">
-        <v>0.007234803418212671</v>
+        <v>0.004405680202621807</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000269153980606</v>
+        <v>1.000099809820862</v>
       </c>
       <c r="O23" t="n">
-        <v>0.007542803977833684</v>
+        <v>0.004593239129862703</v>
       </c>
       <c r="P23" t="n">
-        <v>77.71540836085146</v>
+        <v>79.69944246193091</v>
       </c>
       <c r="Q23" t="n">
-        <v>113.0628072820293</v>
+        <v>115.0468413831087</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999428955957954</v>
+        <v>0.9999790849255735</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9989899915780019</v>
+        <v>0.9989869753589811</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9990913322012984</v>
+        <v>0.9998962140094898</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9998440213470965</v>
+        <v>0.9998518860977125</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9997417146274215</v>
+        <v>0.9998708030299234</v>
       </c>
       <c r="G24" t="n">
-        <v>5.330445473138906e-05</v>
+        <v>1.952330391140391e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.000942798527689363</v>
+        <v>0.000945614035748615</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0002998597425400687</v>
+        <v>2.189609516087762e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>3.126283191100935e-05</v>
+        <v>9.520119943636427e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>0.000165561287225539</v>
+        <v>5.854864729862095e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0005312249310460205</v>
+        <v>0.000315769770451373</v>
       </c>
       <c r="M24" t="n">
-        <v>0.007300989982967314</v>
+        <v>0.004418518293659529</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000274101140182</v>
+        <v>1.000100392357247</v>
       </c>
       <c r="O24" t="n">
-        <v>0.007611808241675009</v>
+        <v>0.004606623765014412</v>
       </c>
       <c r="P24" t="n">
-        <v>77.67898130366976</v>
+        <v>79.68780346709092</v>
       </c>
       <c r="Q24" t="n">
-        <v>113.0263802248476</v>
+        <v>115.0352023882687</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999419511289563</v>
+        <v>0.9999789573292472</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9989860983512829</v>
+        <v>0.9989845356514345</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9990753424875389</v>
+        <v>0.9998945573732879</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9998409301923429</v>
+        <v>0.9998498217186943</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9997371154525022</v>
+        <v>0.9998689534076081</v>
       </c>
       <c r="G25" t="n">
-        <v>5.418607306828738e-05</v>
+        <v>1.964240948123329e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0009464326839386241</v>
+        <v>0.0009478913956525323</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0003051363369765198</v>
+        <v>2.22456015224272e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>3.188239266289397e-05</v>
+        <v>9.652809283113913e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0001685093648197069</v>
+        <v>5.938684717678317e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.000531487426960576</v>
+        <v>0.0003115291402037172</v>
       </c>
       <c r="M25" t="n">
-        <v>0.00736111900924631</v>
+        <v>0.004431975798809521</v>
       </c>
       <c r="N25" t="n">
-        <v>1.00027863458101</v>
+        <v>1.000101004819613</v>
       </c>
       <c r="O25" t="n">
-        <v>0.007674497085086945</v>
+        <v>0.004620654184019516</v>
       </c>
       <c r="P25" t="n">
-        <v>77.64617327399354</v>
+        <v>79.67563916043792</v>
       </c>
       <c r="Q25" t="n">
-        <v>112.9935721951714</v>
+        <v>115.0230380816157</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999410920374527</v>
+        <v>0.9999788285268193</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9989825867889911</v>
+        <v>0.9989823111729146</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9990609100307664</v>
+        <v>0.9998930072479519</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9998381240194902</v>
+        <v>0.9998479882134309</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9997329616843296</v>
+        <v>0.9998672923075768</v>
       </c>
       <c r="G26" t="n">
-        <v>5.498799727720023e-05</v>
+        <v>1.976264089392589e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0009497105731982965</v>
+        <v>0.0009499678487075839</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0003098990376887282</v>
+        <v>2.257263691229871e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>3.244483443663943e-05</v>
+        <v>9.770659057881411e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0001711719360626838</v>
+        <v>6.013961374555641e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.000531690927019699</v>
+        <v>0.0003076761727089408</v>
       </c>
       <c r="M26" t="n">
-        <v>0.007415389219535292</v>
+        <v>0.004445519192841921</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000282758220227</v>
+        <v>1.000101623071267</v>
       </c>
       <c r="O26" t="n">
-        <v>0.007731077690582752</v>
+        <v>0.004634774148374566</v>
       </c>
       <c r="P26" t="n">
-        <v>77.61679125574271</v>
+        <v>79.66343445219337</v>
       </c>
       <c r="Q26" t="n">
-        <v>112.9641901769205</v>
+        <v>115.0108333733712</v>
       </c>
     </row>
   </sheetData>
